--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B30142-0AC5-4B25-8F49-5F93BE519D2F}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DCFA99-A57E-4E5A-BF3D-03BA279C42A5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edena" sheetId="1" r:id="rId1"/>
@@ -887,15 +887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -935,14 +935,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H7" s="1"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DCFA99-A57E-4E5A-BF3D-03BA279C42A5}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C766A6F-AC82-480D-B0FE-73969BCC0BC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edena" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X1</t>
   </si>
@@ -36,15 +36,12 @@
   <si>
     <t>YD2</t>
   </si>
-  <si>
-    <t>YD3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +172,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,9 +518,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,32 +899,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C766A6F-AC82-480D-B0FE-73969BCC0BC8}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAB6D46-968D-4936-9AE9-8A7B2B3B37BC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1250" yWindow="1100" windowWidth="6830" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edena" sheetId="1" r:id="rId1"/>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,6 +917,57 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ortega plata\OneDrive\Documentos\bryan\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{75658A1D-79BA-4C47-8418-DC8597D44A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAB6D46-968D-4936-9AE9-8A7B2B3B37BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC05D4-BF2B-4E6D-98F7-CBD6CECACD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1250" yWindow="1100" windowWidth="6830" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edena" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
